--- a/outputs-HGR-r202/o__Enterobacterales.xlsx
+++ b/outputs-HGR-r202/o__Enterobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>f__Enterobacteriaceae</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>f__Enterobacteriaceae</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>f__Enterobacteriaceae</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>f__Enterobacteriaceae</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>f__Succinivibrionaceae</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>f__Succinivibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>f__Enterobacteriaceae</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -629,6 +664,11 @@
         <v>0.9992077373977118</v>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>f__Enterobacteriaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Enterobacterales.xlsx
+++ b/outputs-HGR-r202/o__Enterobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,11 +465,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,11 +489,6 @@
           <t>f__Succinivibrionaceae</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>f__Succinivibrionaceae</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -519,11 +509,6 @@
         <v>0.9989889893335669</v>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>f__Succinivibrionaceae</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>f__Succinivibrionaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Enterobacterales.xlsx
+++ b/outputs-HGR-r202/o__Enterobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>f__Succinivibrionaceae</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>f__Succinivibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -509,6 +519,11 @@
         <v>0.9989889893335669</v>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Succinivibrionaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>f__Succinivibrionaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Enterobacterales.xlsx
+++ b/outputs-HGR-r202/o__Enterobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,58 +474,261 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7546.fa</t>
+          <t>even_MAG-GUT1861.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.219915793022112e-14</v>
+        <v>1.387668735632791e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0458030182410097</v>
+        <v>0.9600246457735688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9541969817589682</v>
+        <v>0.03997535422629236</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9541969817589682</v>
+        <v>0.9600246457735688</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>f__Succinivibrionaceae</t>
+          <t>f__Enterobacteriaceae</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>f__Succinivibrionaceae</t>
+          <t>f__Enterobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT2060.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.157710993679177e-14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9014243546668872</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09857564533308134</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9014243546668872</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43440.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.514212784879791e-14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9958371256695318</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.004162874330393074</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9958371256695318</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48773.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.220388841734247e-14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5715566551308696</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4284433448691082</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5715566551308696</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49487.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.326490082677192e-14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9986925610391633</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001307438960803406</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9986925610391633</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7546.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.219915793022112e-14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0458030182410097</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9541969817589682</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9541969817589682</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Succinivibrionaceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>f__Succinivibrionaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT8151.fa</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B8" t="n">
         <v>2.219807857240254e-14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C8" t="n">
         <v>0.001011010666410825</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D8" t="n">
         <v>0.9989889893335669</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E8" t="n">
         <v>0.9989889893335669</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>f__Succinivibrionaceae</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>f__Succinivibrionaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91702.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.133752854478095e-13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9969678831168195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.003032116883067057</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9969678831168195</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91898.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.479433787857794e-14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9992077373977118</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0007922626022633349</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9992077373977118</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>f__Enterobacteriaceae</t>
         </is>
       </c>
     </row>
